--- a/Input/Einkauf Kiosk  01.12.23.xlsx
+++ b/Input/Einkauf Kiosk  01.12.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoclub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67742FC4-06FA-4F24-96E4-1DED7434E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EBB9A-4EB5-49CF-BD80-5F60A8EA3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
@@ -818,7 +818,7 @@
       <calculatedColumnFormula>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>58</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="G2" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>3.12</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -1306,7 +1306,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>3.85</v>
+        <v>9.85</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>

--- a/Input/Einkauf Kiosk  01.12.23.xlsx
+++ b/Input/Einkauf Kiosk  01.12.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoclub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275EBB9A-4EB5-49CF-BD80-5F60A8EA3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98209723-F066-43AF-9859-E2197C6F4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
+    <workbookView xWindow="6660" yWindow="4995" windowWidth="29475" windowHeight="15345" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
   <sheets>
     <sheet name="KinoKiosk Angebot 2023" sheetId="1" r:id="rId1"/>
@@ -431,62 +431,7 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color indexed="64"/>
@@ -538,12 +483,8 @@
         <bottom style="hair">
           <color indexed="64"/>
         </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -643,7 +584,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color indexed="64"/>
@@ -702,6 +642,62 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -806,15 +802,15 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E8635A23-EB85-4436-9D20-6BDBA55F1730}" name="Artikel" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
     <tableColumn id="4" xr3:uid="{3577DE02-0CD1-4A73-82D1-7EE95A59F5D7}" name="Artikelname Kassensystem" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{76440182-93E9-4612-87D8-CE2EBC73BDDF}" name="Verkaufs-preis" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{B2930651-661A-4264-8410-185C3D54A8C7}" name="Menge" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{AC0A2B1B-F4FB-4E77-BAD2-DD5CBF1419AB}" name="Einkaufs- preis" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{35E0FA36-7D3F-4BDD-9461-90D996CC4D33}" name="Lieferant" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{506E2FE9-BDDF-4C71-B77C-D5359CF307ED}" name="Gewinn" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{76440182-93E9-4612-87D8-CE2EBC73BDDF}" name="Verkaufs-preis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B2930651-661A-4264-8410-185C3D54A8C7}" name="Menge" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{AC0A2B1B-F4FB-4E77-BAD2-DD5CBF1419AB}" name="Einkaufs- preis" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{35E0FA36-7D3F-4BDD-9461-90D996CC4D33}" name="Lieferant" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{506E2FE9-BDDF-4C71-B77C-D5359CF307ED}" name="Gewinn" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung November 2023" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{2DB050A1-5923-496C-9705-265C74DA448E}" name="Einkaufspreis gesamt" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung November 2023" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2DB050A1-5923-496C-9705-265C74DA448E}" name="Einkaufspreis gesamt" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1134,7 +1130,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>58</v>
@@ -1199,7 +1195,7 @@
       </c>
       <c r="G2" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>8.120000000000001</v>
+        <v>3.12</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -1306,7 +1302,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="5">
@@ -1317,7 +1313,7 @@
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>9.85</v>
+        <v>3.85</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
